--- a/Excel/Growleitfaden.xlsx
+++ b/Excel/Growleitfaden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerec\PhpstormProjects\Growcom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53629C87-43F4-414A-9293-832E5C7783F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAC7461-8DD3-48ED-B668-8BB5197B57F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{63A53BD0-0C96-411C-B040-4AA81CE3616A}"/>
   </bookViews>
@@ -6651,7 +6651,7 @@
   <dimension ref="A1:W150"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
